--- a/selected_solutions.xlsx
+++ b/selected_solutions.xlsx
@@ -19,6 +19,86 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t xml:space="preserve">w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O_2x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O_2y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O_4x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O_4y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B2X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B2Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W + V1 + U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THETA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BETA2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAMMA2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
@@ -29,6 +109,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -110,10 +191,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:S2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S2" activeCellId="0" sqref="S2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y1" activeCellId="0" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -121,6 +202,83 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>2.583857651108</v>

--- a/selected_solutions.xlsx
+++ b/selected_solutions.xlsx
@@ -169,7 +169,11 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -191,151 +195,862 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y1" activeCellId="0" sqref="Y1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>2.583857651108</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>8.95439287365584</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>2.56944211630886</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>8.99914715381371</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>15.3805343469049</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>16.4711687392231</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>15.4327892013822</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>16.5146540007814</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>17.9325804226618</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>16.8753731286142</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>17.9772256836426</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>16.8722512278455</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <v>12.8159363789087</v>
-      </c>
-      <c r="N2" s="0" t="n">
-        <v>16.1562757038302</v>
-      </c>
-      <c r="O2" s="0" t="n">
-        <v>12.8883527191217</v>
-      </c>
-      <c r="P2" s="0" t="n">
-        <v>16.1570567737173</v>
-      </c>
-      <c r="Q2" s="0" t="n">
-        <v>0.073899523901546</v>
-      </c>
-      <c r="R2" s="0" t="n">
-        <v>0.044754280157873</v>
-      </c>
-      <c r="S2" s="0" t="n">
-        <v>5.19805404757474</v>
+      <c r="A2" s="1" t="n">
+        <v>2.56932515352543</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>4.94920385678649</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>2.56551965326762</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>4.97037749285332</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>11.4352708346412</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>16.8794317458203</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>11.4609205993742</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>16.9665984710629</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>13.9484500690671</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>17.4136244827504</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>13.9703774928533</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>8.92209160021527</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>16.3452390088903</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>8.95146370589502</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>16.4331969421259</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>0.0362742451570752</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>0.089115329175393</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>5.22396013596844</v>
+      </c>
+      <c r="T2" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="U2" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="V2" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="W2" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="X2" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="Y2" s="1" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>3.05377112456521</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>7.59551335690083</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>2.80379310022962</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>7.8863385332919</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>10.3270213173519</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>10.3101977747633</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>13.975956020519</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>15.0002847791569</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>13.2473571673962</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>11.2030340442855</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>16.6842121876019</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>15.7259598320233</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>7.28068902576415</v>
+      </c>
+      <c r="N3" s="1" t="n">
+        <v>10.097177469492</v>
+      </c>
+      <c r="O3" s="1" t="n">
+        <v>11.1738709152901</v>
+      </c>
+      <c r="P3" s="1" t="n">
+        <v>14.9024338111009</v>
+      </c>
+      <c r="Q3" s="1" t="n">
+        <v>5.1603729454328</v>
+      </c>
+      <c r="R3" s="1" t="n">
+        <v>5.68056600272339</v>
+      </c>
+      <c r="S3" s="1" t="n">
+        <v>11.5381302275182</v>
+      </c>
+      <c r="T3" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="U3" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="V3" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="W3" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="X3" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="Y3" s="1" t="n">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3.05601820612809</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>5.91845567335964</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>2.76592071698861</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>7.90616318560077</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>10.5087477272107</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>12.5448379592202</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>14.1755575901091</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>15.8206081249166</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>13.3982697084745</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>13.5397801665768</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>16.8472318441163</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>16.5364810837169</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>7.45459116480296</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>12.4381844619127</v>
+      </c>
+      <c r="O4" s="1" t="n">
+        <v>11.4113217972886</v>
+      </c>
+      <c r="P4" s="1" t="n">
+        <v>15.7240788839747</v>
+      </c>
+      <c r="Q4" s="1" t="n">
+        <v>5.18565223875425</v>
+      </c>
+      <c r="R4" s="1" t="n">
+        <v>4.56897758802544</v>
+      </c>
+      <c r="S4" s="1" t="n">
+        <v>10.3909165111421</v>
+      </c>
+      <c r="T4" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U4" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="V4" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="W4" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="X4" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="Y4" s="1" t="n">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>3.22260457156975</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>2.2072246822728</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>3.20300301385551</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>11.2076481331878</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>6.84700281543605</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>14.1286268743476</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>13.2739546423322</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>8.15861330070429</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>9.79099858357188</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>15.4393782397486</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>16.3528787515265</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>9.0414805821173</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>3.62636136749943</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>14.0161595967286</v>
+      </c>
+      <c r="O5" s="1" t="n">
+        <v>10.0714394613498</v>
+      </c>
+      <c r="P5" s="1" t="n">
+        <v>8.21451341112194</v>
+      </c>
+      <c r="Q5" s="1" t="n">
+        <v>9.08908243831503</v>
+      </c>
+      <c r="R5" s="1" t="n">
+        <v>9.16468034227708</v>
+      </c>
+      <c r="S5" s="1" t="n">
+        <v>15.5902879277023</v>
+      </c>
+      <c r="T5" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="U5" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="V5" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="W5" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="X5" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="Y5" s="1" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>3.06317889335195</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>4.22916483778215</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>2.76353531604725</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>4.82537138220765</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>6.28787186661778</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>12.1756663160678</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>10.877885235723</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>15.0878922210356</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>9.14759572431051</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>13.2734114551688</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>13.534365880412</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>15.8496257882578</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>3.24752544423238</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>11.8023587156025</v>
+      </c>
+      <c r="O6" s="1" t="n">
+        <v>8.13494889285543</v>
+      </c>
+      <c r="P6" s="1" t="n">
+        <v>14.751101986592</v>
+      </c>
+      <c r="Q6" s="1" t="n">
+        <v>6.49125915806245</v>
+      </c>
+      <c r="R6" s="1" t="n">
+        <v>5.08730112068038</v>
+      </c>
+      <c r="S6" s="1" t="n">
+        <v>10.9140153300796</v>
+      </c>
+      <c r="T6" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="U6" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="V6" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="W6" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="X6" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="Y6" s="1" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>3.19078352346891</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>5.02919384777797</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>3.1262775695687</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>9.5546031652218</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>10.7367139709676</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>14.5024095668517</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>13.740162226934</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>10.9699100655244</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>13.6951569373457</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>15.697698112906</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>16.7298363351731</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>11.8839451679756</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>7.54787418660908</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <v>14.6137663059074</v>
+      </c>
+      <c r="O7" s="1" t="n">
+        <v>10.6157891011915</v>
+      </c>
+      <c r="P7" s="1" t="n">
+        <v>11.0790155792547</v>
+      </c>
+      <c r="Q7" s="1" t="n">
+        <v>4.24751725747355</v>
+      </c>
+      <c r="R7" s="1" t="n">
+        <v>4.87380657931386</v>
+      </c>
+      <c r="S7" s="1" t="n">
+        <v>11.1908676723515</v>
+      </c>
+      <c r="T7" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="U7" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="V7" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="W7" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="X7" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="Y7" s="1" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>5.35740028241969</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>7.62336040423433</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>2.96104106085175</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>8.6604051623841</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>7.62958298379797</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>7.83162397427555</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>14.5336513633796</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>14.3927975829556</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>12.2217713226604</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>10.5908891022556</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>17.365309012474</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>15.2585222056708</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <v>2.50627561412231</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <v>9.39797622772866</v>
+      </c>
+      <c r="O8" s="1" t="n">
+        <v>11.5744140887375</v>
+      </c>
+      <c r="P8" s="1" t="n">
+        <v>14.4961364256947</v>
+      </c>
+      <c r="Q8" s="1" t="n">
+        <v>9.7638271379556</v>
+      </c>
+      <c r="R8" s="1" t="n">
+        <v>6.94570217865917</v>
+      </c>
+      <c r="S8" s="1" t="n">
+        <v>15.2641435219306</v>
+      </c>
+      <c r="T8" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="U8" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="V8" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="W8" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="X8" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="Y8" s="1" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>3.50564095932983</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>6.57427979596317</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>3.05761791604803</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>8.15406864508813</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>12.1764332148441</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>14.4836651339312</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>13.5411449286279</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>13.2385855935231</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>15.3789955893657</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>15.909537769558</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>16.4491123720262</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>14.1834414918872</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>8.70490891234719</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>14.9715560570937</v>
+      </c>
+      <c r="O9" s="1" t="n">
+        <v>10.4853896308003</v>
+      </c>
+      <c r="P9" s="1" t="n">
+        <v>13.3452949199017</v>
+      </c>
+      <c r="Q9" s="1" t="n">
+        <v>1.92999381436255</v>
+      </c>
+      <c r="R9" s="1" t="n">
+        <v>2.03090085634938</v>
+      </c>
+      <c r="S9" s="1" t="n">
+        <v>8.59415973172723</v>
+      </c>
+      <c r="T9" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="U9" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="V9" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="W9" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="X9" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="Y9" s="1" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>3.50490608444015</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>1.0920972231842</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>3.02173786872959</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>6.3447040069646</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>6.9214835806014</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>15.5895076083195</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>10.612539737355</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>12.0798484180701</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>10.0443777685051</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>17.1807016731347</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>13.4863832279461</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>13.0136167720539</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <v>3.42138084813845</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <v>15.7729402197904</v>
+      </c>
+      <c r="O10" s="1" t="n">
+        <v>7.59494305535532</v>
+      </c>
+      <c r="P10" s="1" t="n">
+        <v>11.9217028771946</v>
+      </c>
+      <c r="Q10" s="1" t="n">
+        <v>5.21994167636169</v>
+      </c>
+      <c r="R10" s="1" t="n">
+        <v>5.40481249958198</v>
+      </c>
+      <c r="S10" s="1" t="n">
+        <v>11.9314564527517</v>
+      </c>
+      <c r="T10" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="U10" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="V10" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="W10" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="X10" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="Y10" s="1" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>4.67652679249621</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>3.48167784976398</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>3.0964963557009</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>7.44366707739857</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>8.43024677053514</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>14.5467562316572</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>12.8184586127639</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>13.3460497549645</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>12.4388126179202</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>16.9553455881298</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>15.7462534363547</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <v>14.3541703587733</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>3.91306876433027</v>
+      </c>
+      <c r="N11" s="1" t="n">
+        <v>15.7571304304874</v>
+      </c>
+      <c r="O11" s="1" t="n">
+        <v>9.72384855897834</v>
+      </c>
+      <c r="P11" s="1" t="n">
+        <v>13.4541159193196</v>
+      </c>
+      <c r="Q11" s="1" t="n">
+        <v>6.2058687018461</v>
+      </c>
+      <c r="R11" s="1" t="n">
+        <v>4.20776393601919</v>
+      </c>
+      <c r="S11" s="1" t="n">
+        <v>11.9807870842163</v>
+      </c>
+      <c r="T11" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="U11" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="V11" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="W11" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="X11" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="Y11" s="1" t="n">
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/selected_solutions.xlsx
+++ b/selected_solutions.xlsx
@@ -127,12 +127,18 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -174,7 +180,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -187,6 +193,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFF200"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -198,858 +264,782 @@
   <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="0" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>2.56932515352543</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>4.94920385678649</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>2.56551965326762</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>4.97037749285332</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>11.4352708346412</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>16.8794317458203</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>11.4609205993742</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>16.9665984710629</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>13.9484500690671</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>17.4136244827504</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>13.9703774928533</v>
-      </c>
-      <c r="L2" s="1" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>8.92209160021527</v>
-      </c>
-      <c r="N2" s="1" t="n">
-        <v>16.3452390088903</v>
-      </c>
-      <c r="O2" s="1" t="n">
-        <v>8.95146370589502</v>
-      </c>
-      <c r="P2" s="1" t="n">
-        <v>16.4331969421259</v>
-      </c>
-      <c r="Q2" s="1" t="n">
-        <v>0.0362742451570752</v>
-      </c>
-      <c r="R2" s="1" t="n">
-        <v>0.089115329175393</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>5.22396013596844</v>
-      </c>
-      <c r="T2" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="U2" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="V2" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="W2" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="X2" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="Y2" s="1" t="n">
-        <v>180</v>
+      <c r="A2" s="0" t="n">
+        <v>2.97103268114132</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>4.38395069785351</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>3.7797900986314</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>6.66421500432914</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>7.97394680152299</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>12.5277881266157</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>10.2866584210926</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>11.1902800579254</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>10.7831133902547</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>13.4950617534468</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>13.7123116208463</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>12.7876883791537</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>5.02505974745558</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>12.1657103245298</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>6.54365297987237</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>11.7163251669301</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>3.27066813825319</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>3.01339996760458</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>9.7642227473773</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="U2" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="V2" s="0" t="n">
+        <v>168</v>
+      </c>
+      <c r="W2" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="X2" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="Y2" s="0" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="0" t="n">
         <v>3.05377112456521</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="0" t="n">
         <v>7.59551335690083</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="0" t="n">
         <v>2.80379310022962</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="0" t="n">
         <v>7.8863385332919</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="0" t="n">
         <v>10.3270213173519</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="0" t="n">
         <v>10.3101977747633</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="0" t="n">
         <v>13.975956020519</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H3" s="0" t="n">
         <v>15.0002847791569</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="I3" s="0" t="n">
         <v>13.2473571673962</v>
       </c>
-      <c r="J3" s="1" t="n">
+      <c r="J3" s="0" t="n">
         <v>11.2030340442855</v>
       </c>
-      <c r="K3" s="1" t="n">
+      <c r="K3" s="0" t="n">
         <v>16.6842121876019</v>
       </c>
-      <c r="L3" s="1" t="n">
+      <c r="L3" s="0" t="n">
         <v>15.7259598320233</v>
       </c>
-      <c r="M3" s="1" t="n">
+      <c r="M3" s="0" t="n">
         <v>7.28068902576415</v>
       </c>
-      <c r="N3" s="1" t="n">
+      <c r="N3" s="0" t="n">
         <v>10.097177469492</v>
       </c>
-      <c r="O3" s="1" t="n">
+      <c r="O3" s="0" t="n">
         <v>11.1738709152901</v>
       </c>
-      <c r="P3" s="1" t="n">
+      <c r="P3" s="0" t="n">
         <v>14.9024338111009</v>
       </c>
-      <c r="Q3" s="1" t="n">
+      <c r="Q3" s="0" t="n">
         <v>5.1603729454328</v>
       </c>
-      <c r="R3" s="1" t="n">
+      <c r="R3" s="0" t="n">
         <v>5.68056600272339</v>
       </c>
-      <c r="S3" s="1" t="n">
+      <c r="S3" s="0" t="n">
         <v>11.5381302275182</v>
       </c>
-      <c r="T3" s="1" t="n">
+      <c r="T3" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="U3" s="1" t="n">
+      <c r="U3" s="0" t="n">
         <v>124</v>
       </c>
-      <c r="V3" s="1" t="n">
+      <c r="V3" s="0" t="n">
         <v>167</v>
       </c>
-      <c r="W3" s="1" t="n">
+      <c r="W3" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="X3" s="1" t="n">
+      <c r="X3" s="0" t="n">
         <v>167</v>
       </c>
-      <c r="Y3" s="1" t="n">
+      <c r="Y3" s="0" t="n">
         <v>167</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="0" t="n">
         <v>3.05601820612809</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="0" t="n">
         <v>5.91845567335964</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="0" t="n">
         <v>2.76592071698861</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="0" t="n">
         <v>7.90616318560077</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="0" t="n">
         <v>10.5087477272107</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="0" t="n">
         <v>12.5448379592202</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="0" t="n">
         <v>14.1755575901091</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="H4" s="0" t="n">
         <v>15.8206081249166</v>
       </c>
-      <c r="I4" s="1" t="n">
+      <c r="I4" s="0" t="n">
         <v>13.3982697084745</v>
       </c>
-      <c r="J4" s="1" t="n">
+      <c r="J4" s="0" t="n">
         <v>13.5397801665768</v>
       </c>
-      <c r="K4" s="1" t="n">
+      <c r="K4" s="0" t="n">
         <v>16.8472318441163</v>
       </c>
-      <c r="L4" s="1" t="n">
+      <c r="L4" s="0" t="n">
         <v>16.5364810837169</v>
       </c>
-      <c r="M4" s="1" t="n">
+      <c r="M4" s="0" t="n">
         <v>7.45459116480296</v>
       </c>
-      <c r="N4" s="1" t="n">
+      <c r="N4" s="0" t="n">
         <v>12.4381844619127</v>
       </c>
-      <c r="O4" s="1" t="n">
+      <c r="O4" s="0" t="n">
         <v>11.4113217972886</v>
       </c>
-      <c r="P4" s="1" t="n">
+      <c r="P4" s="0" t="n">
         <v>15.7240788839747</v>
       </c>
-      <c r="Q4" s="1" t="n">
+      <c r="Q4" s="0" t="n">
         <v>5.18565223875425</v>
       </c>
-      <c r="R4" s="1" t="n">
+      <c r="R4" s="0" t="n">
         <v>4.56897758802544</v>
       </c>
-      <c r="S4" s="1" t="n">
+      <c r="S4" s="0" t="n">
         <v>10.3909165111421</v>
       </c>
-      <c r="T4" s="1" t="n">
+      <c r="T4" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="U4" s="1" t="n">
+      <c r="U4" s="0" t="n">
         <v>138</v>
       </c>
-      <c r="V4" s="1" t="n">
+      <c r="V4" s="0" t="n">
         <v>163</v>
       </c>
-      <c r="W4" s="1" t="n">
+      <c r="W4" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="X4" s="1" t="n">
+      <c r="X4" s="0" t="n">
         <v>167</v>
       </c>
-      <c r="Y4" s="1" t="n">
+      <c r="Y4" s="0" t="n">
         <v>173</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="0" t="n">
         <v>3.22260457156975</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="0" t="n">
         <v>2.2072246822728</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="0" t="n">
         <v>3.20300301385551</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="0" t="n">
         <v>11.2076481331878</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="0" t="n">
         <v>6.84700281543605</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="0" t="n">
         <v>14.1286268743476</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="0" t="n">
         <v>13.2739546423322</v>
       </c>
-      <c r="H5" s="1" t="n">
+      <c r="H5" s="0" t="n">
         <v>8.15861330070429</v>
       </c>
-      <c r="I5" s="1" t="n">
+      <c r="I5" s="0" t="n">
         <v>9.79099858357188</v>
       </c>
-      <c r="J5" s="1" t="n">
+      <c r="J5" s="0" t="n">
         <v>15.4393782397486</v>
       </c>
-      <c r="K5" s="1" t="n">
+      <c r="K5" s="0" t="n">
         <v>16.3528787515265</v>
       </c>
-      <c r="L5" s="1" t="n">
+      <c r="L5" s="0" t="n">
         <v>9.0414805821173</v>
       </c>
-      <c r="M5" s="1" t="n">
+      <c r="M5" s="0" t="n">
         <v>3.62636136749943</v>
       </c>
-      <c r="N5" s="1" t="n">
+      <c r="N5" s="0" t="n">
         <v>14.0161595967286</v>
       </c>
-      <c r="O5" s="1" t="n">
+      <c r="O5" s="0" t="n">
         <v>10.0714394613498</v>
       </c>
-      <c r="P5" s="1" t="n">
+      <c r="P5" s="0" t="n">
         <v>8.21451341112194</v>
       </c>
-      <c r="Q5" s="1" t="n">
+      <c r="Q5" s="0" t="n">
         <v>9.08908243831503</v>
       </c>
-      <c r="R5" s="1" t="n">
+      <c r="R5" s="0" t="n">
         <v>9.16468034227708</v>
       </c>
-      <c r="S5" s="1" t="n">
+      <c r="S5" s="0" t="n">
         <v>15.5902879277023</v>
       </c>
-      <c r="T5" s="1" t="n">
+      <c r="T5" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="U5" s="1" t="n">
+      <c r="U5" s="0" t="n">
         <v>111</v>
       </c>
-      <c r="V5" s="1" t="n">
+      <c r="V5" s="0" t="n">
         <v>158</v>
       </c>
-      <c r="W5" s="1" t="n">
+      <c r="W5" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="X5" s="1" t="n">
+      <c r="X5" s="0" t="n">
         <v>163</v>
       </c>
-      <c r="Y5" s="1" t="n">
+      <c r="Y5" s="0" t="n">
         <v>131</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="0" t="n">
         <v>3.06317889335195</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="0" t="n">
         <v>4.22916483778215</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="0" t="n">
         <v>2.76353531604725</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="0" t="n">
         <v>4.82537138220765</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="0" t="n">
         <v>6.28787186661778</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="0" t="n">
         <v>12.1756663160678</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="0" t="n">
         <v>10.877885235723</v>
       </c>
-      <c r="H6" s="1" t="n">
+      <c r="H6" s="0" t="n">
         <v>15.0878922210356</v>
       </c>
-      <c r="I6" s="1" t="n">
+      <c r="I6" s="0" t="n">
         <v>9.14759572431051</v>
       </c>
-      <c r="J6" s="1" t="n">
+      <c r="J6" s="0" t="n">
         <v>13.2734114551688</v>
       </c>
-      <c r="K6" s="1" t="n">
+      <c r="K6" s="0" t="n">
         <v>13.534365880412</v>
       </c>
-      <c r="L6" s="1" t="n">
+      <c r="L6" s="0" t="n">
         <v>15.8496257882578</v>
       </c>
-      <c r="M6" s="1" t="n">
+      <c r="M6" s="0" t="n">
         <v>3.24752544423238</v>
       </c>
-      <c r="N6" s="1" t="n">
+      <c r="N6" s="0" t="n">
         <v>11.8023587156025</v>
       </c>
-      <c r="O6" s="1" t="n">
+      <c r="O6" s="0" t="n">
         <v>8.13494889285543</v>
       </c>
-      <c r="P6" s="1" t="n">
+      <c r="P6" s="0" t="n">
         <v>14.751101986592</v>
       </c>
-      <c r="Q6" s="1" t="n">
+      <c r="Q6" s="0" t="n">
         <v>6.49125915806245</v>
       </c>
-      <c r="R6" s="1" t="n">
+      <c r="R6" s="0" t="n">
         <v>5.08730112068038</v>
       </c>
-      <c r="S6" s="1" t="n">
+      <c r="S6" s="0" t="n">
         <v>10.9140153300796</v>
       </c>
-      <c r="T6" s="1" t="n">
+      <c r="T6" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="U6" s="1" t="n">
+      <c r="U6" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="V6" s="1" t="n">
+      <c r="V6" s="0" t="n">
         <v>166</v>
       </c>
-      <c r="W6" s="1" t="n">
+      <c r="W6" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="X6" s="1" t="n">
+      <c r="X6" s="0" t="n">
         <v>171</v>
       </c>
-      <c r="Y6" s="1" t="n">
+      <c r="Y6" s="0" t="n">
         <v>160</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="0" t="n">
         <v>3.19078352346891</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="0" t="n">
         <v>5.02919384777797</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="0" t="n">
         <v>3.1262775695687</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="0" t="n">
         <v>9.5546031652218</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="0" t="n">
         <v>10.7367139709676</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="0" t="n">
         <v>14.5024095668517</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="0" t="n">
         <v>13.740162226934</v>
       </c>
-      <c r="H7" s="1" t="n">
+      <c r="H7" s="0" t="n">
         <v>10.9699100655244</v>
       </c>
-      <c r="I7" s="1" t="n">
+      <c r="I7" s="0" t="n">
         <v>13.6951569373457</v>
       </c>
-      <c r="J7" s="1" t="n">
+      <c r="J7" s="0" t="n">
         <v>15.697698112906</v>
       </c>
-      <c r="K7" s="1" t="n">
+      <c r="K7" s="0" t="n">
         <v>16.7298363351731</v>
       </c>
-      <c r="L7" s="1" t="n">
+      <c r="L7" s="0" t="n">
         <v>11.8839451679756</v>
       </c>
-      <c r="M7" s="1" t="n">
+      <c r="M7" s="0" t="n">
         <v>7.54787418660908</v>
       </c>
-      <c r="N7" s="1" t="n">
+      <c r="N7" s="0" t="n">
         <v>14.6137663059074</v>
       </c>
-      <c r="O7" s="1" t="n">
+      <c r="O7" s="0" t="n">
         <v>10.6157891011915</v>
       </c>
-      <c r="P7" s="1" t="n">
+      <c r="P7" s="0" t="n">
         <v>11.0790155792547</v>
       </c>
-      <c r="Q7" s="1" t="n">
+      <c r="Q7" s="0" t="n">
         <v>4.24751725747355</v>
       </c>
-      <c r="R7" s="1" t="n">
+      <c r="R7" s="0" t="n">
         <v>4.87380657931386</v>
       </c>
-      <c r="S7" s="1" t="n">
+      <c r="S7" s="0" t="n">
         <v>11.1908676723515</v>
       </c>
-      <c r="T7" s="1" t="n">
+      <c r="T7" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="U7" s="1" t="n">
+      <c r="U7" s="0" t="n">
         <v>159</v>
       </c>
-      <c r="V7" s="1" t="n">
+      <c r="V7" s="0" t="n">
         <v>156</v>
       </c>
-      <c r="W7" s="1" t="n">
+      <c r="W7" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="X7" s="1" t="n">
+      <c r="X7" s="0" t="n">
         <v>161</v>
       </c>
-      <c r="Y7" s="1" t="n">
+      <c r="Y7" s="0" t="n">
         <v>144</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="0" t="n">
         <v>5.35740028241969</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="0" t="n">
         <v>7.62336040423433</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="0" t="n">
         <v>2.96104106085175</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="0" t="n">
         <v>8.6604051623841</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="0" t="n">
         <v>7.62958298379797</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F8" s="0" t="n">
         <v>7.83162397427555</v>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="G8" s="0" t="n">
         <v>14.5336513633796</v>
       </c>
-      <c r="H8" s="1" t="n">
+      <c r="H8" s="0" t="n">
         <v>14.3927975829556</v>
       </c>
-      <c r="I8" s="1" t="n">
+      <c r="I8" s="0" t="n">
         <v>12.2217713226604</v>
       </c>
-      <c r="J8" s="1" t="n">
+      <c r="J8" s="0" t="n">
         <v>10.5908891022556</v>
       </c>
-      <c r="K8" s="1" t="n">
+      <c r="K8" s="0" t="n">
         <v>17.365309012474</v>
       </c>
-      <c r="L8" s="1" t="n">
+      <c r="L8" s="0" t="n">
         <v>15.2585222056708</v>
       </c>
-      <c r="M8" s="1" t="n">
+      <c r="M8" s="0" t="n">
         <v>2.50627561412231</v>
       </c>
-      <c r="N8" s="1" t="n">
+      <c r="N8" s="0" t="n">
         <v>9.39797622772866</v>
       </c>
-      <c r="O8" s="1" t="n">
+      <c r="O8" s="0" t="n">
         <v>11.5744140887375</v>
       </c>
-      <c r="P8" s="1" t="n">
+      <c r="P8" s="0" t="n">
         <v>14.4961364256947</v>
       </c>
-      <c r="Q8" s="1" t="n">
+      <c r="Q8" s="0" t="n">
         <v>9.7638271379556</v>
       </c>
-      <c r="R8" s="1" t="n">
+      <c r="R8" s="0" t="n">
         <v>6.94570217865917</v>
       </c>
-      <c r="S8" s="1" t="n">
+      <c r="S8" s="0" t="n">
         <v>15.2641435219306</v>
       </c>
-      <c r="T8" s="1" t="n">
+      <c r="T8" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="U8" s="1" t="n">
+      <c r="U8" s="0" t="n">
         <v>115</v>
       </c>
-      <c r="V8" s="1" t="n">
+      <c r="V8" s="0" t="n">
         <v>132</v>
       </c>
-      <c r="W8" s="1" t="n">
+      <c r="W8" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="X8" s="1" t="n">
+      <c r="X8" s="0" t="n">
         <v>161</v>
       </c>
-      <c r="Y8" s="1" t="n">
+      <c r="Y8" s="0" t="n">
         <v>165</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>3.50564095932983</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>6.57427979596317</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>3.05761791604803</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>8.15406864508813</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>12.1764332148441</v>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>14.4836651339312</v>
-      </c>
-      <c r="G9" s="1" t="n">
-        <v>13.5411449286279</v>
-      </c>
-      <c r="H9" s="1" t="n">
-        <v>13.2385855935231</v>
-      </c>
-      <c r="I9" s="1" t="n">
-        <v>15.3789955893657</v>
-      </c>
-      <c r="J9" s="1" t="n">
-        <v>15.909537769558</v>
-      </c>
-      <c r="K9" s="1" t="n">
-        <v>16.4491123720262</v>
-      </c>
-      <c r="L9" s="1" t="n">
-        <v>14.1834414918872</v>
-      </c>
-      <c r="M9" s="1" t="n">
-        <v>8.70490891234719</v>
-      </c>
-      <c r="N9" s="1" t="n">
-        <v>14.9715560570937</v>
-      </c>
-      <c r="O9" s="1" t="n">
-        <v>10.4853896308003</v>
-      </c>
-      <c r="P9" s="1" t="n">
-        <v>13.3452949199017</v>
-      </c>
-      <c r="Q9" s="1" t="n">
-        <v>1.92999381436255</v>
-      </c>
-      <c r="R9" s="1" t="n">
-        <v>2.03090085634938</v>
-      </c>
-      <c r="S9" s="1" t="n">
-        <v>8.59415973172723</v>
-      </c>
-      <c r="T9" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="U9" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="V9" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="W9" s="1" t="n">
+    <row r="9" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>3.50490608444015</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>1.0920972231842</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>3.02173786872959</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>6.3447040069646</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>6.9214835806014</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>15.5895076083195</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>10.612539737355</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>12.0798484180701</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>10.0443777685051</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>17.1807016731347</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>13.4863832279461</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>13.0136167720539</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>3.42138084813845</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>15.7729402197904</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>7.59494305535532</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>11.9217028771946</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>5.21994167636169</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>5.40481249958198</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>11.9314564527517</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="U10" s="0" t="n">
+        <v>163</v>
+      </c>
+      <c r="V10" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W10" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="X9" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="Y9" s="1" t="n">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>3.50490608444015</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>1.0920972231842</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>3.02173786872959</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>6.3447040069646</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>6.9214835806014</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>15.5895076083195</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>10.612539737355</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <v>12.0798484180701</v>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>10.0443777685051</v>
-      </c>
-      <c r="J10" s="1" t="n">
-        <v>17.1807016731347</v>
-      </c>
-      <c r="K10" s="1" t="n">
-        <v>13.4863832279461</v>
-      </c>
-      <c r="L10" s="1" t="n">
-        <v>13.0136167720539</v>
-      </c>
-      <c r="M10" s="1" t="n">
-        <v>3.42138084813845</v>
-      </c>
-      <c r="N10" s="1" t="n">
-        <v>15.7729402197904</v>
-      </c>
-      <c r="O10" s="1" t="n">
-        <v>7.59494305535532</v>
-      </c>
-      <c r="P10" s="1" t="n">
-        <v>11.9217028771946</v>
-      </c>
-      <c r="Q10" s="1" t="n">
-        <v>5.21994167636169</v>
-      </c>
-      <c r="R10" s="1" t="n">
-        <v>5.40481249958198</v>
-      </c>
-      <c r="S10" s="1" t="n">
-        <v>11.9314564527517</v>
-      </c>
-      <c r="T10" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="U10" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="V10" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="W10" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="X10" s="1" t="n">
+      <c r="X10" s="0" t="n">
         <v>165</v>
       </c>
-      <c r="Y10" s="1" t="n">
+      <c r="Y10" s="0" t="n">
         <v>135</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="0" t="n">
         <v>4.67652679249621</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="0" t="n">
         <v>3.48167784976398</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="0" t="n">
         <v>3.0964963557009</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="0" t="n">
         <v>7.44366707739857</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="0" t="n">
         <v>8.43024677053514</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="F11" s="0" t="n">
         <v>14.5467562316572</v>
       </c>
-      <c r="G11" s="1" t="n">
+      <c r="G11" s="0" t="n">
         <v>12.8184586127639</v>
       </c>
-      <c r="H11" s="1" t="n">
+      <c r="H11" s="0" t="n">
         <v>13.3460497549645</v>
       </c>
-      <c r="I11" s="1" t="n">
+      <c r="I11" s="0" t="n">
         <v>12.4388126179202</v>
       </c>
-      <c r="J11" s="1" t="n">
+      <c r="J11" s="0" t="n">
         <v>16.9553455881298</v>
       </c>
-      <c r="K11" s="1" t="n">
+      <c r="K11" s="0" t="n">
         <v>15.7462534363547</v>
       </c>
-      <c r="L11" s="1" t="n">
+      <c r="L11" s="0" t="n">
         <v>14.3541703587733</v>
       </c>
-      <c r="M11" s="1" t="n">
+      <c r="M11" s="0" t="n">
         <v>3.91306876433027</v>
       </c>
-      <c r="N11" s="1" t="n">
+      <c r="N11" s="0" t="n">
         <v>15.7571304304874</v>
       </c>
-      <c r="O11" s="1" t="n">
+      <c r="O11" s="0" t="n">
         <v>9.72384855897834</v>
       </c>
-      <c r="P11" s="1" t="n">
+      <c r="P11" s="0" t="n">
         <v>13.4541159193196</v>
       </c>
-      <c r="Q11" s="1" t="n">
+      <c r="Q11" s="0" t="n">
         <v>6.2058687018461</v>
       </c>
-      <c r="R11" s="1" t="n">
+      <c r="R11" s="0" t="n">
         <v>4.20776393601919</v>
       </c>
-      <c r="S11" s="1" t="n">
+      <c r="S11" s="0" t="n">
         <v>11.9807870842163</v>
       </c>
-      <c r="T11" s="1" t="n">
+      <c r="T11" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="U11" s="1" t="n">
+      <c r="U11" s="0" t="n">
         <v>171</v>
       </c>
-      <c r="V11" s="1" t="n">
+      <c r="V11" s="0" t="n">
         <v>134</v>
       </c>
-      <c r="W11" s="1" t="n">
+      <c r="W11" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="X11" s="1" t="n">
+      <c r="X11" s="0" t="n">
         <v>159</v>
       </c>
-      <c r="Y11" s="1" t="n">
+      <c r="Y11" s="0" t="n">
         <v>155</v>
       </c>
     </row>

--- a/selected_solutions.xlsx
+++ b/selected_solutions.xlsx
@@ -127,18 +127,12 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF200"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -180,7 +174,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -193,66 +187,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFF200"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -264,7 +198,7 @@
   <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -351,696 +285,772 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>2.97103268114132</v>
+        <v>3.69636511158967</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>4.38395069785351</v>
+        <v>6.35310468451306</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>3.7797900986314</v>
+        <v>3.68896412782559</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>6.66421500432914</v>
+        <v>6.87632362893748</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>7.97394680152299</v>
+        <v>12.7099166836486</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>12.5277881266157</v>
+        <v>11.0905338863646</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>10.2866584210926</v>
+        <v>13.7712063031143</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>11.1902800579254</v>
+        <v>12.9419129223057</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>10.7831133902547</v>
+        <v>14.5019500496902</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>13.4950617534468</v>
+        <v>14.3234476577435</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>13.7123116208463</v>
+        <v>15.7260594595144</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>12.7876883791537</v>
+        <v>16.0703319276975</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>5.02505974745558</v>
+        <v>9.7578682474332</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>12.1657103245298</v>
+        <v>13.3150619415744</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>6.54365297987237</v>
+        <v>10.8250685553422</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>11.7163251669301</v>
+        <v>15.1619869543001</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>3.27066813825319</v>
+        <v>1.50089017345419</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>3.01339996760458</v>
+        <v>2.13308426927602</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>9.7642227473773</v>
+        <v>9.51841350869128</v>
       </c>
       <c r="T2" s="0" t="n">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="U2" s="0" t="n">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="V2" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="W2" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="X2" s="0" t="n">
         <v>168</v>
       </c>
-      <c r="W2" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="X2" s="0" t="n">
-        <v>147</v>
-      </c>
       <c r="Y2" s="0" t="n">
-        <v>135</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>3.05377112456521</v>
+        <v>9.92400850531045</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>7.59551335690083</v>
+        <v>5.67175499626357</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>2.80379310022962</v>
+        <v>3.18656519622147</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>7.8863385332919</v>
+        <v>12.6472869569284</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>10.3270213173519</v>
+        <v>6.34130479436125</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>10.3101977747633</v>
+        <v>3.50190453800398</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>13.975956020519</v>
+        <v>15.608744516114</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>15.0002847791569</v>
+        <v>5.25261082184566</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>13.2473571673962</v>
+        <v>5.13187239387196</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>11.2030340442855</v>
+        <v>13.3519409888056</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>16.6842121876019</v>
+        <v>17.2973668003268</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>15.7259598320233</v>
+        <v>7.9549713697796</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>7.28068902576415</v>
+        <v>0.508118951314696</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>10.097177469492</v>
+        <v>11.5305960711217</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>11.1738709152901</v>
+        <v>13.0976968744225</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>14.9024338111009</v>
+        <v>7.21445625177276</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>5.1603729454328</v>
+        <v>13.1061389429778</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>5.68056600272339</v>
+        <v>13.3088893309011</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>11.5381302275182</v>
+        <v>26.419463032433</v>
       </c>
       <c r="T3" s="0" t="n">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="U3" s="0" t="n">
-        <v>124</v>
+        <v>47</v>
       </c>
       <c r="V3" s="0" t="n">
-        <v>167</v>
+        <v>29</v>
       </c>
       <c r="W3" s="0" t="n">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="X3" s="0" t="n">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="Y3" s="0" t="n">
-        <v>167</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>3.05601820612809</v>
+        <v>4.53612471139863</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>5.91845567335964</v>
+        <v>5.51402050097118</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>2.76592071698861</v>
+        <v>3.70255740022215</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>7.90616318560077</v>
+        <v>1.96587071564641</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>10.5087477272107</v>
+        <v>5.46821081966851</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>12.5448379592202</v>
+        <v>8.19440936860883</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>14.1755575901091</v>
+        <v>9.12045012942182</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>15.8206081249166</v>
+        <v>13.8194456407625</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>13.3982697084745</v>
+        <v>6.41132417817562</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>13.5397801665768</v>
+        <v>12.6314088716927</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>16.8472318441163</v>
+        <v>10.9154855765638</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>16.5364810837169</v>
+        <v>17.0577753098116</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>7.45459116480296</v>
+        <v>1.84550054714254</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>12.4381844619127</v>
+        <v>10.9243173668198</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>11.4113217972886</v>
+        <v>5.94673899697878</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>15.7240788839747</v>
+        <v>15.7264036764169</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>5.18565223875425</v>
+        <v>5.16504636488529</v>
       </c>
       <c r="R4" s="0" t="n">
-        <v>4.56897758802544</v>
+        <v>6.315076384909</v>
       </c>
       <c r="S4" s="0" t="n">
-        <v>10.3909165111421</v>
+        <v>14.5537584965298</v>
       </c>
       <c r="T4" s="0" t="n">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="U4" s="0" t="n">
-        <v>138</v>
+        <v>62</v>
       </c>
       <c r="V4" s="0" t="n">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="W4" s="0" t="n">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="X4" s="0" t="n">
         <v>167</v>
       </c>
       <c r="Y4" s="0" t="n">
-        <v>173</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>3.22260457156975</v>
+        <v>4.1175947254747</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>2.2072246822728</v>
+        <v>5.32057717654238</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>3.20300301385551</v>
+        <v>3.77478430815857</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>11.2076481331878</v>
+        <v>3.37929415629902</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>6.84700281543605</v>
+        <v>4.51668936819164</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>14.1286268743476</v>
+        <v>9.40704884563347</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>13.2739546423322</v>
+        <v>10.3610730932215</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>8.15861330070429</v>
+        <v>12.9011574095083</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>9.79099858357188</v>
+        <v>5.65165229064751</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>15.4393782397486</v>
+        <v>13.36513493463</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>16.3528787515265</v>
+        <v>12.1332269815523</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>9.0414805821173</v>
+        <v>16.2340941279585</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>3.62636136749943</v>
+        <v>1.02477100050908</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>14.0161595967286</v>
+        <v>11.5890416129675</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>10.0714394613498</v>
+        <v>7.23163507346685</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>8.21451341112194</v>
+        <v>15.0119900067633</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>9.08908243831503</v>
+        <v>8.26520672764979</v>
       </c>
       <c r="R5" s="0" t="n">
-        <v>9.16468034227708</v>
+        <v>7.08814061138481</v>
       </c>
       <c r="S5" s="0" t="n">
-        <v>15.5902879277023</v>
+        <v>14.9805196450181</v>
       </c>
       <c r="T5" s="0" t="n">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="U5" s="0" t="n">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="V5" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="W5" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="X5" s="0" t="n">
         <v>158</v>
       </c>
-      <c r="W5" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="X5" s="0" t="n">
-        <v>163</v>
-      </c>
       <c r="Y5" s="0" t="n">
-        <v>131</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>3.06317889335195</v>
+        <v>6.50852607687795</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>4.22916483778215</v>
+        <v>3.97189775406216</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>2.76353531604725</v>
+        <v>4.09730595353844</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>4.82537138220765</v>
+        <v>5.00329655354536</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>6.28787186661778</v>
+        <v>4.95128406479383</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>12.1756663160678</v>
+        <v>9.57699277798252</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>10.877885235723</v>
+        <v>11.7094572971967</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>15.0878922210356</v>
+        <v>11.3312784554688</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>9.14759572431051</v>
+        <v>5.29191400075937</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>13.2734114551688</v>
+        <v>16.0765991460732</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>13.534365880412</v>
+        <v>13.3759817663934</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>15.8496257882578</v>
+        <v>15.0743536978959</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>3.24752544423238</v>
+        <v>0.430081946139896</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>11.8023587156025</v>
+        <v>14.2588346266228</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>8.13494889285543</v>
+        <v>8.57073883973024</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>14.751101986592</v>
+        <v>13.9649759554982</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>6.49125915806245</v>
+        <v>9.55750024213093</v>
       </c>
       <c r="R6" s="0" t="n">
-        <v>5.08730112068038</v>
+        <v>8.14595897226073</v>
       </c>
       <c r="S6" s="0" t="n">
-        <v>10.9140153300796</v>
+        <v>18.7517910026771</v>
       </c>
       <c r="T6" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="U6" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="U6" s="0" t="n">
-        <v>92</v>
-      </c>
       <c r="V6" s="0" t="n">
-        <v>166</v>
+        <v>47</v>
       </c>
       <c r="W6" s="0" t="n">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="X6" s="0" t="n">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="Y6" s="0" t="n">
-        <v>160</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>3.19078352346891</v>
+        <v>4.0628596597344</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>5.02919384777797</v>
+        <v>3.42722849906148</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>3.1262775695687</v>
+        <v>4.57252597742122</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>9.5546031652218</v>
+        <v>7.36088928823122</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>10.7367139709676</v>
+        <v>6.0682759592831</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>14.5024095668517</v>
+        <v>10.6324275682442</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>13.740162226934</v>
+        <v>14.4390207844722</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>10.9699100655244</v>
+        <v>11.886443755081</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>13.6951569373457</v>
+        <v>7.39101368052126</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>15.697698112906</v>
+        <v>14.4739368465762</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>16.7298363351731</v>
+        <v>16.2256490196765</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>11.8839451679756</v>
+        <v>16.0954761098346</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>7.54787418660908</v>
+        <v>2.66087514097111</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>14.6137663059074</v>
+        <v>12.8452195327234</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>10.6157891011915</v>
+        <v>11.3205655665277</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>11.0790155792547</v>
+        <v>15.2305775544179</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>4.24751725747355</v>
+        <v>11.8380208589468</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>4.87380657931386</v>
+        <v>8.98221415677333</v>
       </c>
       <c r="S7" s="0" t="n">
-        <v>11.1908676723515</v>
+        <v>17.6175997939289</v>
       </c>
       <c r="T7" s="0" t="n">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="U7" s="0" t="n">
-        <v>159</v>
+        <v>62</v>
       </c>
       <c r="V7" s="0" t="n">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="W7" s="0" t="n">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="X7" s="0" t="n">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="Y7" s="0" t="n">
-        <v>144</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>5.35740028241969</v>
+        <v>4.05063641811303</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>7.62336040423433</v>
+        <v>1.3646256773876</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>2.96104106085175</v>
+        <v>4.49275171423543</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>8.6604051623841</v>
+        <v>12.1936132697465</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>7.62958298379797</v>
+        <v>6.2086170683397</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>7.83162397427555</v>
+        <v>13.2552772065031</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>14.5336513633796</v>
+        <v>15.4495668958965</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>14.3927975829556</v>
+        <v>3.886289519249</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>12.2217713226604</v>
+        <v>7.72601217809546</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>10.5908891022556</v>
+        <v>17.0109618940977</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>17.365309012474</v>
+        <v>16.8379035271024</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>15.2585222056708</v>
+        <v>8.15915031316883</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>2.50627561412231</v>
+        <v>2.77348256573706</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>9.39797622772866</v>
+        <v>15.4017874768658</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>11.5744140887375</v>
+        <v>12.622186630204</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>14.4961364256947</v>
+        <v>7.37781336979595</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>9.7638271379556</v>
+        <v>13.0686765753402</v>
       </c>
       <c r="R8" s="0" t="n">
-        <v>6.94570217865917</v>
+        <v>12.7035873760279</v>
       </c>
       <c r="S8" s="0" t="n">
-        <v>15.2641435219306</v>
+        <v>21.2469755083764</v>
       </c>
       <c r="T8" s="0" t="n">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="U8" s="0" t="n">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="V8" s="0" t="n">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="W8" s="0" t="n">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="X8" s="0" t="n">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="Y8" s="0" t="n">
-        <v>165</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>3.64669537444696</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>10.5439216284924</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>8.02747984916856</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>3.60169473513715</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>5.32719805788363</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>3.79291654588406</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>11.8358804898448</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>8.81583138115544</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>6.27103227247777</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>7.31535378867126</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>12.535521458491</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>16.8127642459355</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>2.16906722374936</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>5.61626423310754</v>
+      </c>
+      <c r="O9" s="1" t="n">
+        <v>7.58196427452653</v>
+      </c>
+      <c r="P9" s="1" t="n">
+        <v>15.6235203841769</v>
+      </c>
+      <c r="Q9" s="1" t="n">
+        <v>9.20466696845901</v>
+      </c>
+      <c r="R9" s="1" t="n">
+        <v>11.3773736053374</v>
+      </c>
+      <c r="S9" s="1" t="n">
+        <v>23.0515488289529</v>
+      </c>
+      <c r="T9" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="U9" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="V9" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="W9" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="X9" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="Y9" s="1" t="n">
+        <v>37</v>
+      </c>
+    </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>3.50490608444015</v>
+        <v>5.44945312727714</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>1.0920972231842</v>
+        <v>3.61247377580719</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>3.02173786872959</v>
+        <v>6.04619643469056</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>6.3447040069646</v>
+        <v>3.71040389665843</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>6.9214835806014</v>
+        <v>5.28241743134748</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>15.5895076083195</v>
+        <v>10.0315507412145</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>10.612539737355</v>
+        <v>6.34483901446793</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>12.0798484180701</v>
+        <v>8.43742623105446</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>10.0443777685051</v>
+        <v>6.04083472160717</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>17.1807016731347</v>
+        <v>15.4279701652609</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>13.4863832279461</v>
+        <v>6.87179975553162</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>13.0136167720539</v>
+        <v>14.4606150629144</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>3.42138084813845</v>
+        <v>1.23268453812987</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>15.7729402197904</v>
+        <v>13.6779466165936</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>7.59494305535532</v>
+        <v>2.14479805167079</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>11.9217028771946</v>
+        <v>12.786695967193</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>5.21994167636169</v>
+        <v>1.50249101180683</v>
       </c>
       <c r="R10" s="0" t="n">
-        <v>5.40481249958198</v>
+        <v>1.27525635918464</v>
       </c>
       <c r="S10" s="0" t="n">
-        <v>11.9314564527517</v>
+        <v>12.7709059211523</v>
       </c>
       <c r="T10" s="0" t="n">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="U10" s="0" t="n">
-        <v>163</v>
+        <v>35</v>
       </c>
       <c r="V10" s="0" t="n">
-        <v>150</v>
+        <v>56</v>
       </c>
       <c r="W10" s="0" t="n">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="X10" s="0" t="n">
-        <v>165</v>
+        <v>55</v>
       </c>
       <c r="Y10" s="0" t="n">
-        <v>135</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>4.67652679249621</v>
+        <v>4.51150655340003</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>3.48167784976398</v>
+        <v>6.443914875203</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>3.0964963557009</v>
+        <v>10.3324085756324</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>7.44366707739857</v>
+        <v>0.986089913658771</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>8.43024677053514</v>
+        <v>4.72440933746207</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>14.5467562316572</v>
+        <v>7.60663278717028</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>12.8184586127639</v>
+        <v>8.86824477910906</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>13.3460497549645</v>
+        <v>6.46057112273839</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>12.4388126179202</v>
+        <v>5.58524537055103</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>16.9553455881298</v>
+        <v>12.03525025829</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>15.7462534363547</v>
+        <v>8.32748829601055</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>14.3541703587733</v>
+        <v>16.7788194915163</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>3.91306876433027</v>
+        <v>1.07452386552749</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>15.7571304304874</v>
+        <v>10.2584298048797</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>9.72384855897834</v>
+        <v>3.39290242895309</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>13.4541159193196</v>
+        <v>15.2229505440138</v>
       </c>
       <c r="Q11" s="0" t="n">
-        <v>6.2058687018461</v>
+        <v>5.86026828181949</v>
       </c>
       <c r="R11" s="0" t="n">
-        <v>4.20776393601919</v>
+        <v>5.47917378193501</v>
       </c>
       <c r="S11" s="0" t="n">
-        <v>11.9807870842163</v>
+        <v>20.3230889109674</v>
       </c>
       <c r="T11" s="0" t="n">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="U11" s="0" t="n">
-        <v>171</v>
+        <v>58</v>
       </c>
       <c r="V11" s="0" t="n">
-        <v>134</v>
+        <v>65</v>
       </c>
       <c r="W11" s="0" t="n">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="X11" s="0" t="n">
-        <v>159</v>
+        <v>47</v>
       </c>
       <c r="Y11" s="0" t="n">
-        <v>155</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
